--- a/data/trans_dic/P78A_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7622639580795136</v>
+        <v>0.7591467923916103</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8100559075510848</v>
+        <v>0.8025810226875507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8188756160993123</v>
+        <v>0.8150636508503317</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9427100199210662</v>
+        <v>0.9418483758520788</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9164657181919633</v>
+        <v>0.9157833852344144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9131753115456321</v>
+        <v>0.9114360941929998</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8544414868928659</v>
+        <v>0.854441486892866</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7161811141818146</v>
+        <v>0.7161811141818144</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7748903632739274</v>
+        <v>0.7748903632739276</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7668228447710409</v>
+        <v>0.7709207513553156</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6641797953601963</v>
+        <v>0.6646486921764357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7303490838840452</v>
+        <v>0.7323966760449712</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9170763167163438</v>
+        <v>0.9149598700795895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7604341330239887</v>
+        <v>0.7571414943260775</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8114065146216914</v>
+        <v>0.8115245908985856</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8660015493004435</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8374441925078654</v>
+        <v>0.8374441925078655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8491130976198279</v>
+        <v>0.849113097619828</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7888610412231326</v>
+        <v>0.7954350227607921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.783523371954182</v>
+        <v>0.7877528653933623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.80972526080662</v>
+        <v>0.8080905868989615</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9194207609657712</v>
+        <v>0.9212503583515947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8773991666528804</v>
+        <v>0.8776798070823245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.885756431318699</v>
+        <v>0.883303567746528</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8743656653274262</v>
+        <v>0.8743656653274265</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7643636147037653</v>
+        <v>0.7643636147037655</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8081972145270736</v>
+        <v>0.8081972145270737</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7521282752785563</v>
+        <v>0.7302894584327905</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6983532505672987</v>
+        <v>0.7008811729196278</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.747942388579243</v>
+        <v>0.7468168630516727</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9558851106012248</v>
+        <v>0.9455685554589213</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8173682621330512</v>
+        <v>0.8238616452625716</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8550778203830984</v>
+        <v>0.8524835746175216</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7904045622326227</v>
+        <v>0.7904045622326226</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.7762094722361517</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7816996780634852</v>
+        <v>0.7816996780634854</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6547524024359412</v>
+        <v>0.6621833689064632</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.693994057970602</v>
+        <v>0.6915949372568401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7155127397451901</v>
+        <v>0.7179626552323446</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8921454264279319</v>
+        <v>0.8874706664099846</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8427646756997789</v>
+        <v>0.8406366937454252</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8385185329280422</v>
+        <v>0.8388278942291145</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9171082998848076</v>
+        <v>0.9171082998848075</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.7696469125059117</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8326571291995516</v>
+        <v>0.8326571291995517</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8537780650141821</v>
+        <v>0.8498939246237254</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7070996893479025</v>
+        <v>0.7091253196080401</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7895180890221654</v>
+        <v>0.7898346064350885</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9577638513774051</v>
+        <v>0.9577825717723149</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8229811171233505</v>
+        <v>0.8176583883425043</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8713145464155945</v>
+        <v>0.8703334414557989</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.8517337956316667</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8058460946013059</v>
+        <v>0.805846094601306</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8265875219404918</v>
+        <v>0.8265875219404916</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7714916174412639</v>
+        <v>0.7783231329049302</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7554977708360254</v>
+        <v>0.757076949823465</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7867989213185164</v>
+        <v>0.7862335911319162</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9043829690512382</v>
+        <v>0.9120313865315557</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8480362051280166</v>
+        <v>0.8473076175777171</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8609616662458923</v>
+        <v>0.8605569442252309</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8322294800862206</v>
+        <v>0.8322294800862208</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.6978712229021096</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7703452797643839</v>
+        <v>0.7746201196266477</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6582728110582357</v>
+        <v>0.6568830397498835</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7145279966139669</v>
+        <v>0.7165117667242032</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8778513469115333</v>
+        <v>0.8836745672004445</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7379309659650947</v>
+        <v>0.7388223735096866</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7804828672557809</v>
+        <v>0.7828588958920883</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.8560439109786249</v>
+        <v>0.856043910978625</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.7649490569367212</v>
+        <v>0.7649490569367213</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8028846296166554</v>
+        <v>0.8028846296166555</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.82832889431629</v>
+        <v>0.8268864807070287</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7476017019787169</v>
+        <v>0.7450095357935357</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7868749233761859</v>
+        <v>0.7878898394284281</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8822633300594558</v>
+        <v>0.8816971427279654</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7846493198523155</v>
+        <v>0.7823568478048022</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8167774255038026</v>
+        <v>0.8186783611274269</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>89471</v>
+        <v>89106</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>134750</v>
+        <v>133507</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>232334</v>
+        <v>231252</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>110652</v>
+        <v>110550</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>152451</v>
+        <v>152338</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>259089</v>
+        <v>258595</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>213348</v>
+        <v>214488</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>250390</v>
+        <v>250567</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>478536</v>
+        <v>479877</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>255152</v>
+        <v>254563</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>286678</v>
+        <v>285436</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>531646</v>
+        <v>531723</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>127928</v>
+        <v>128994</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>183898</v>
+        <v>184891</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>321360</v>
+        <v>320711</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>149101</v>
+        <v>149397</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>205932</v>
+        <v>205998</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>351535</v>
+        <v>350561</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>122953</v>
+        <v>119383</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>172333</v>
+        <v>172957</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>306840</v>
+        <v>306378</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>156262</v>
+        <v>154576</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>201703</v>
+        <v>203305</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>350791</v>
+        <v>349727</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>44057</v>
+        <v>44557</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>74040</v>
+        <v>73784</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>124481</v>
+        <v>124908</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60031</v>
+        <v>59716</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>89912</v>
+        <v>89685</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>145881</v>
+        <v>145935</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>114364</v>
+        <v>113844</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>126947</v>
+        <v>127311</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>247500</v>
+        <v>247600</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>128293</v>
+        <v>128296</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>147751</v>
+        <v>146796</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>273142</v>
+        <v>272835</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>253437</v>
+        <v>255681</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>300890</v>
+        <v>301519</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>571822</v>
+        <v>571411</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>297093</v>
+        <v>299605</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>337745</v>
+        <v>337455</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>625721</v>
+        <v>625427</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>261491</v>
+        <v>262942</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>341889</v>
+        <v>341167</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>613650</v>
+        <v>615354</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>297983</v>
+        <v>299960</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>383261</v>
+        <v>383724</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>670294</v>
+        <v>672334</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1317399</v>
+        <v>1315105</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1666162</v>
+        <v>1660385</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3005159</v>
+        <v>3009035</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1403178</v>
+        <v>1402278</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1748729</v>
+        <v>1743620</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3119360</v>
+        <v>3126619</v>
       </c>
     </row>
     <row r="40">
